--- a/conakry/TEMP/MTN-Backup Tracker-TEMP.xlsx
+++ b/conakry/TEMP/MTN-Backup Tracker-TEMP.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaakgar\AppData\Local\Temp\scp54407\home\ubuntu\perl-to-python\conakry\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717611B4-4E46-47A9-AE11-1D2E1A9C60B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE1A0D7-7DD8-45AE-A472-0EAB09CEC187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="883" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="883" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VS Geo Redundancy Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="SDP Geo Redundancy Sheet" sheetId="1" r:id="rId2"/>
     <sheet name="SDP_Daily" sheetId="3" r:id="rId3"/>
     <sheet name="VS_Daily" sheetId="4" r:id="rId4"/>
-    <sheet name="AIR_Daily" sheetId="5" r:id="rId5"/>
-    <sheet name="CCN_DBN backup_Daily" sheetId="6" r:id="rId6"/>
-    <sheet name="MINSAT_Daily" sheetId="7" r:id="rId7"/>
-    <sheet name="CRS DB backup_Daily" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId9"/>
-    <sheet name="EMA proclogs_Backup _Daily" sheetId="8" r:id="rId10"/>
-    <sheet name="Quarterly CRS backup" sheetId="10" r:id="rId11"/>
-    <sheet name="Quarterly_Backup_IVR" sheetId="11" r:id="rId12"/>
-    <sheet name="Quarterly_Backup_CCN" sheetId="12" r:id="rId13"/>
-    <sheet name="Monthly_Backup_EMM" sheetId="13" r:id="rId14"/>
-    <sheet name="Quarterly EMA_Backup" sheetId="14" r:id="rId15"/>
+    <sheet name="Logs" sheetId="16" r:id="rId5"/>
+    <sheet name="AIR_Daily" sheetId="5" r:id="rId6"/>
+    <sheet name="CCN_DBN backup_Daily" sheetId="6" r:id="rId7"/>
+    <sheet name="MINSAT_Daily" sheetId="7" r:id="rId8"/>
+    <sheet name="CRS DB backup_Daily" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId10"/>
+    <sheet name="EMA proclogs_Backup _Daily" sheetId="8" r:id="rId11"/>
+    <sheet name="Quarterly CRS backup" sheetId="10" r:id="rId12"/>
+    <sheet name="Quarterly_Backup_IVR" sheetId="11" r:id="rId13"/>
+    <sheet name="Quarterly_Backup_CCN" sheetId="12" r:id="rId14"/>
+    <sheet name="Monthly_Backup_EMM" sheetId="13" r:id="rId15"/>
+    <sheet name="Quarterly EMA_Backup" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AIR_Daily!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AIR_Daily!$A$1:$E$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SDP_Daily!$A$2:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VS_Daily!$A$1:$G$5</definedName>
   </definedNames>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="92">
   <si>
     <t>HOSTNAME</t>
   </si>
@@ -305,13 +306,28 @@
   </si>
   <si>
     <t>Node - B</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Name  </t>
+  </si>
+  <si>
+    <t>IP  Address</t>
+  </si>
+  <si>
+    <t>Back Type</t>
+  </si>
+  <si>
+    <t>Logs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +449,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +497,18 @@
       <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -702,11 +742,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +892,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,10 +929,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM 3" xfId="2" xr:uid="{C9BC995D-DF7C-42A0-BD32-57D3425C300F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_CCN DATABASE" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Style 1" xfId="3" xr:uid="{B073748F-9DF1-488E-B17E-AAD4724F7A40}"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -3415,6 +3482,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3490,7 +3569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3564,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3583,19 +3662,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="31" t="s">
         <v>45</v>
       </c>
@@ -3688,7 +3767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -3783,7 +3862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3920,7 +3999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3938,24 +4017,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
@@ -4150,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4165,19 +4244,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4417,6 +4496,389 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E8E643-3FC2-4FB9-81D9-FC2A6D5324F3}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="13" style="48" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="67"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4530,7 +4992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4632,7 +5094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4677,7 +5139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4726,16 +5188,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>